--- a/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Ressources/SFCC/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE8F0E50-FF9A-4E44-A68C-43403CA1ED9C}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A29FEC-8C48-48D5-9BB5-6B7CEEEE6B5D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="2430" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -129,13 +129,37 @@
   </si>
   <si>
     <t>@{allCheckSystems}</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>UC10_SFCC_Newsletter_AUT_UAT</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>UC11_SFCC_Newsletter_PRT_UAT</t>
+  </si>
+  <si>
+    <t>UC12_SFCC_Newsletter_NZL_UAT</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>UC13_SFCC_Newsletter_ARE_UAT</t>
+  </si>
+  <si>
+    <t>ARE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +176,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -159,6 +184,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -166,6 +192,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Corps)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -200,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,11 +257,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,8 +297,21 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -325,6 +386,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,24 +709,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="39.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="1"/>
+    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="23.4">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="24">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -836,7 +901,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -849,8 +914,88 @@
       </c>
       <c r="F10" s="3"/>
     </row>
+    <row r="11" spans="1:6" ht="21">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="21">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="21">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="21">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="21">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B10">
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>

--- a/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A29FEC-8C48-48D5-9BB5-6B7CEEEE6B5D}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2991837F-45B0-4FD7-AB71-4FE0DA45C916}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -74,30 +74,6 @@
     <t>NLD</t>
   </si>
   <si>
-    <t>UC1_SFCC_Newsletter_FRA_UAT</t>
-  </si>
-  <si>
-    <t>UC2_SFCC_Newsletter_USA_UAT</t>
-  </si>
-  <si>
-    <t>UC3_SFCC_Newsletter_ITA_UAT</t>
-  </si>
-  <si>
-    <t>UC4_SFCC_Newsletter_GBR_UAT</t>
-  </si>
-  <si>
-    <t>UC5_SFCC_Newsletter_CHE_UAT</t>
-  </si>
-  <si>
-    <t>UC6_SFCC_Newsletter_BEL_UAT</t>
-  </si>
-  <si>
-    <t>UC7_SFCC_Newsletter_LUX_UAT</t>
-  </si>
-  <si>
-    <t>UC8_SFCC_Newsletter_NLD_UAT</t>
-  </si>
-  <si>
     <t>STEP</t>
   </si>
   <si>
@@ -116,9 +92,6 @@
     <t>Parfois, impossible de choisir la région</t>
   </si>
   <si>
-    <t>UC9_SFCC_Newsletter_POL_UAT</t>
-  </si>
-  <si>
     <t>POL</t>
   </si>
   <si>
@@ -134,32 +107,59 @@
     <t>AUT</t>
   </si>
   <si>
-    <t>UC10_SFCC_Newsletter_AUT_UAT</t>
-  </si>
-  <si>
     <t>PRT</t>
   </si>
   <si>
-    <t>UC11_SFCC_Newsletter_PRT_UAT</t>
-  </si>
-  <si>
-    <t>UC12_SFCC_Newsletter_NZL_UAT</t>
-  </si>
-  <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>UC13_SFCC_Newsletter_ARE_UAT</t>
-  </si>
-  <si>
     <t>ARE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_ARE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_NZL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_PRT</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_AUT</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_POL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_NLD</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_LUX</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_BEL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_CHE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_GBR</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_ITA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_USA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_FRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +200,28 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Aptos Narrow (Corps)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos Narrow (Corps)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -275,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -284,13 +306,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -306,8 +322,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,290 +741,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="39.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="24">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="24">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="21">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+      <c r="A3" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="21">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
+      <c r="A4" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="21">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
+      <c r="A6" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
+      <c r="A7" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
+      <c r="A8" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="21">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
+      <c r="A9" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="21">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="21">
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="21">
+      <c r="A12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="21">
+      <c r="A13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="21">
+      <c r="A14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="21">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="21">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="21">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="21">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>38</v>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="21">
       <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="21">
+      <c r="A16" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B15">

--- a/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2991837F-45B0-4FD7-AB71-4FE0DA45C916}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D2E12F3-65E1-4947-8B18-6946F5980559}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -153,13 +153,25 @@
   </si>
   <si>
     <t>contact_from_SFCC_to_STEP_for_newsletter_FRA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_ROU</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_SVK</t>
+  </si>
+  <si>
+    <t>SVK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,14 +206,6 @@
       <name val="Aptos Narrow (Corps)"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <name val="Aptos Narrow (Corps)"/>
@@ -211,13 +215,6 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -293,11 +290,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -322,19 +318,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -342,8 +332,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -418,10 +407,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,14 +729,14 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="57.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.25" style="1" bestFit="1" customWidth="1"/>
@@ -779,7 +764,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -797,7 +782,7 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -815,7 +800,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="21">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -833,7 +818,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="21">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -853,7 +838,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="21">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -873,7 +858,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -893,7 +878,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="21">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -911,7 +896,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="21">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -929,7 +914,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="21">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -947,7 +932,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="21">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -965,7 +950,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -983,7 +968,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="21">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1000,12 +985,12 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="21">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>8</v>
@@ -1018,19 +1003,44 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="21">
-      <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="3"/>
+    <row r="15" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="21">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B15">
+  <conditionalFormatting sqref="B2:B16">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>

--- a/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D2E12F3-65E1-4947-8B18-6946F5980559}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF0288CD-0816-4695-AA8D-DA447122DE20}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="50">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -44,134 +45,155 @@
     <t>${playTest}</t>
   </si>
   <si>
+    <t>${country}</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>URL HS</t>
+  </si>
+  <si>
+    <t>404 après validation newsletter</t>
+  </si>
+  <si>
+    <t>Parfois, impossible de choisir la région</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>${email}</t>
+  </si>
+  <si>
+    <t>[Description]</t>
+  </si>
+  <si>
+    <t>@{allCheckSystems}</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_ARE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_NZL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_PRT</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_AUT</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_POL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_NLD</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_LUX</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_BEL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_CHE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_GBR</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_ITA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_USA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_FRA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_ROU</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_SVK</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_MYS</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>${country}</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>CHE</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>LUX</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>STEP</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>URL HS</t>
-  </si>
-  <si>
-    <t>404 après validation newsletter</t>
-  </si>
-  <si>
-    <t>Parfois, impossible de choisir la région</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>${email}</t>
-  </si>
-  <si>
-    <t>[Description]</t>
-  </si>
-  <si>
-    <t>@{allCheckSystems}</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_ARE</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_NZL</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_PRT</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_AUT</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_POL</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_NLD</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_LUX</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_BEL</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_CHE</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_GBR</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_ITA</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_USA</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_FRA</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_ROU</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_STEP_for_newsletter_SVK</t>
-  </si>
-  <si>
-    <t>SVK</t>
+    <t>${firstName}</t>
+  </si>
+  <si>
+    <t>${lastName}</t>
+  </si>
+  <si>
+    <t>${birthDate}</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_ESP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +241,14 @@
     <font>
       <sz val="14"/>
       <name val="Aptos Narrow (Corps)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="6">
@@ -293,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,11 +361,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -407,6 +480,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18"/>
@@ -737,13 +814,14 @@
     <col min="1" max="1" width="57.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="1"/>
+    <col min="4" max="5" width="22" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="24">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="24">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -751,312 +829,914 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="2" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="21">
-      <c r="A3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="21">
-      <c r="A4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="21">
-      <c r="A5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21">
-      <c r="A6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21">
-      <c r="A7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21">
-      <c r="A8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="21">
-      <c r="A9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="21">
-      <c r="A10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="21">
-      <c r="A11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="21">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="21">
-      <c r="A13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3DB7C1-A6FB-41E2-A773-1E86CD540D30}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="74.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="21">
+      <c r="A16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21">
+      <c r="A18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21">
+      <c r="A19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21">
+      <c r="A20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21">
+      <c r="A21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21">
+      <c r="A22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21">
+      <c r="A23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21">
+      <c r="A24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21">
+      <c r="A25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21">
+      <c r="A26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21">
+      <c r="A27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21">
+      <c r="A28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21">
+      <c r="A29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21">
+      <c r="A30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="21">
+      <c r="A31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21">
+      <c r="A32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="21">
+      <c r="A33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="21">
+      <c r="A34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="21">
+      <c r="A35" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B15">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:F35">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1065,7 +1745,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/1_subscribeNewsletter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.aggour\OneDrive - ONEPOINT\Bureau\clarins_auto_uat_ihm\Ressources\SFCC\TestData\FROM_SFCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF0288CD-0816-4695-AA8D-DA447122DE20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CAF63-F435-4E4C-9F7A-5FDB6BD1BEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>contact_from_SFCC_to_STEP_for_newsletter_ESP</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_TWN</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_newsletter_SAU</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>thirdparty_newsletter_sau@qq.com</t>
   </si>
 </sst>
 </file>
@@ -214,25 +229,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow (Corps)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Aptos Narrow (Corps)"/>
-    </font>
-    <font>
       <sz val="16"/>
       <name val="Aptos Display"/>
       <family val="2"/>
@@ -244,14 +240,33 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Aptos Narrow (Corps)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Corps)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,24 +281,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -319,11 +328,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -332,13 +370,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,24 +379,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -480,10 +535,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,74 +854,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="57.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="24">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="21">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>43</v>
+      <c r="C2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>11</v>
@@ -878,18 +931,45 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
+    <row r="4" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F3">
+  <conditionalFormatting sqref="B3:F4 B2 D2:F2">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -898,13 +978,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:thirdparty_newsletter_sau@qq.com" xr:uid="{F428912F-D7CA-4FE4-92F6-D836FB371CFA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -912,10 +995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3DB7C1-A6FB-41E2-A773-1E86CD540D30}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:H35"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -924,13 +1007,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -942,13 +1025,13 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -960,13 +1043,13 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -978,13 +1061,13 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -998,13 +1081,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1018,13 +1101,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1038,13 +1121,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1056,13 +1139,13 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1074,13 +1157,13 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1092,16 +1175,16 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1110,16 +1193,16 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1128,16 +1211,16 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="21">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1146,16 +1229,16 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1164,16 +1247,16 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1182,16 +1265,16 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1200,22 +1283,22 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="21">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1225,510 +1308,236 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21">
-      <c r="A17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:9" ht="21">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="C17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21">
-      <c r="A18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>48</v>
+      <c r="C18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="21">
-      <c r="A19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>48</v>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="21">
-      <c r="A20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21">
-      <c r="A21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21">
-      <c r="A22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21">
-      <c r="A23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21">
-      <c r="A24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21">
-      <c r="A25" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21">
-      <c r="A26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="21">
-      <c r="A27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="21">
-      <c r="A28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21">
-      <c r="A29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21">
-      <c r="A30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="21">
-      <c r="A31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="21">
-      <c r="A32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="21">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="21">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="21">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="21">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="21">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="27" spans="1:9" ht="21">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" ht="21">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" ht="21">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="21">
+      <c r="A30" s="10"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" ht="21">
+      <c r="A31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" ht="21">
+      <c r="A32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="21">
-      <c r="A33" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="21">
-      <c r="A34" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A34" s="10"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" ht="21">
-      <c r="A35" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="10"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B15">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="B1:B15 B27:F35">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:F35">
+  <conditionalFormatting sqref="B16:F24">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1737,10 +1546,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
